--- a/Benchmarks.xlsx
+++ b/Benchmarks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cools\Desktop\GitHub\OSProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E0A6CB7-3DD5-4853-880E-C1A8BC9E8BED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B6C81ED-F7DC-4DA0-8C3E-1298F536F9A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{9E55CE3C-58B9-4552-8B3C-8DCD2AB6F8FD}"/>
+    <workbookView xWindow="8865" yWindow="1335" windowWidth="14670" windowHeight="11385" activeTab="1" xr2:uid="{9E55CE3C-58B9-4552-8B3C-8DCD2AB6F8FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -690,6 +690,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Hyper-V</c:v>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -736,6 +739,9 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>VMWare</c:v>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent2"/>
@@ -782,6 +788,9 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:v>VirtualBox</c:v>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent3"/>
@@ -828,6 +837,9 @@
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
+          <c:tx>
+            <c:v>Host</c:v>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent4"/>
@@ -2757,7 +2769,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2926,7 +2938,7 @@
         <v>1189</v>
       </c>
       <c r="D11">
-        <f t="shared" ref="D11:D22" si="3">AVERAGE(B11:C11)</f>
+        <f t="shared" ref="D11:D13" si="3">AVERAGE(B11:C11)</f>
         <v>1191.5</v>
       </c>
     </row>
